--- a/E4/Annexe 6-1 - Tableau de synthèse - Épreuve E4 - BTS SIO 2022.xlsx
+++ b/E4/Annexe 6-1 - Tableau de synthèse - Épreuve E4 - BTS SIO 2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\li.s\Downloads\Blogger Free Website Template - Free-CSS.com\blogger\E4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\li.s\Documents\Cours\PORTFOLIO\E4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,14 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$38</definedName>
   </definedNames>
   <calcPr calcId="101716"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -130,12 +130,6 @@
     <t>Installation et configuration d'applications VPN (Windows, openVPN)</t>
   </si>
   <si>
-    <t>Préparation et envoi de postes vers d'autres entités</t>
-  </si>
-  <si>
-    <t>Configuration téléphonie VoIP</t>
-  </si>
-  <si>
     <t>Gestion et optimisation du parc informatique</t>
   </si>
   <si>
@@ -184,13 +178,16 @@
     <t>Disponibilité avec HeartBeat</t>
   </si>
   <si>
-    <t>Serveur de messagerie (Zimbre)</t>
-  </si>
-  <si>
     <t>Gestion de parc informatique (GLPI, OCS)</t>
   </si>
   <si>
     <t>Configuration de routage statique</t>
+  </si>
+  <si>
+    <t>Serveur de messagerie (Zimbra)</t>
+  </si>
+  <si>
+    <t>Service de supervision (Nagios)</t>
   </si>
 </sst>
 </file>
@@ -625,15 +622,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -657,21 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -981,10 +978,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ85"/>
+  <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1023,30 +1020,30 @@
       <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="37" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="16" t="s">
         <v>8</v>
       </c>
@@ -1058,10 +1055,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="40" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1084,8 +1081,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1141,16 +1138,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1189,15 +1186,15 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="40"/>
+        <v>38</v>
+      </c>
+      <c r="B8" s="26"/>
       <c r="C8" s="19"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="41"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="41"/>
+      <c r="H8" s="27"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1236,15 +1233,15 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="41"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
       <c r="G9" s="20"/>
-      <c r="H9" s="41"/>
+      <c r="H9" s="27"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1283,10 +1280,10 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="41"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -1330,14 +1327,14 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="41"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="21"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1377,10 +1374,10 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="41"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -1424,13 +1421,13 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="10"/>
-      <c r="C13" s="41"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="41"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="20"/>
       <c r="H13" s="21"/>
       <c r="I13"/>
@@ -1471,13 +1468,13 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="41"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="41"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="20"/>
       <c r="H14" s="21"/>
       <c r="I14"/>
@@ -1518,10 +1515,10 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="41"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -1565,10 +1562,10 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="41"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -1612,10 +1609,10 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="41"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
@@ -1666,7 +1663,7 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="41"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="21"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -1704,17 +1701,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="21"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1751,17 +1748,17 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="21"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1800,14 +1797,14 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="21"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -1847,11 +1844,11 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="41"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
@@ -1894,14 +1891,14 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="20"/>
-      <c r="D23" s="41"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="41"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="21"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -1941,14 +1938,14 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="21"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -1988,14 +1985,14 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="41"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="41"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="21"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -2035,10 +2032,10 @@
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="41"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -2082,10 +2079,10 @@
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B27" s="10"/>
-      <c r="C27" s="41"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
@@ -2129,11 +2126,11 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28" s="10"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
@@ -2174,17 +2171,17 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2221,17 +2218,17 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="21"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2270,14 +2267,14 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="20"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
-      <c r="G31" s="41"/>
+      <c r="G31" s="20"/>
       <c r="H31" s="21"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2317,13 +2314,13 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="20"/>
       <c r="H32" s="21"/>
       <c r="I32"/>
@@ -2363,14 +2360,12 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="A33" s="12"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="41"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="41"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="21"/>
       <c r="I33"/>
@@ -2455,14 +2450,14 @@
       <c r="AQ34"/>
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="23"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2544,15 +2539,15 @@
       <c r="AP36"/>
       <c r="AQ36"/>
     </row>
-    <row r="37" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="23"/>
+    <row r="37" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25"/>
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
@@ -2589,15 +2584,15 @@
       <c r="AP37"/>
       <c r="AQ37"/>
     </row>
-    <row r="38" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
+    <row r="38" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
@@ -2634,51 +2629,7 @@
       <c r="AP38"/>
       <c r="AQ38"/>
     </row>
-    <row r="39" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
-      <c r="AB39"/>
-      <c r="AC39"/>
-      <c r="AD39"/>
-      <c r="AE39"/>
-      <c r="AF39"/>
-      <c r="AG39"/>
-      <c r="AH39"/>
-      <c r="AI39"/>
-      <c r="AJ39"/>
-      <c r="AK39"/>
-      <c r="AL39"/>
-      <c r="AM39"/>
-      <c r="AN39"/>
-      <c r="AO39"/>
-      <c r="AP39"/>
-      <c r="AQ39"/>
-    </row>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2724,20 +2675,19 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="83" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2748,21 +2698,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E7E3D1E14E9C144A8998A2E377FBBD54" ma:contentTypeVersion="11" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="d71441a1a9fee6a511937a070674f86d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dafe53b-2063-428e-8ba2-6ec8a7615450" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="110d7b59b83772660b3560b9992482ee" ns2:_="">
     <xsd:import namespace="6dafe53b-2063-428e-8ba2-6ec8a7615450"/>
@@ -2952,31 +2887,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1714351-9BB4-4976-A659-D6A909C14EA4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="6dafe53b-2063-428e-8ba2-6ec8a7615450"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB71CA8-A4CE-483B-87DF-17C296F720A5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B268582E-E018-4DB9-9A5B-F88DBE48D796}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2992,4 +2918,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB71CA8-A4CE-483B-87DF-17C296F720A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1714351-9BB4-4976-A659-D6A909C14EA4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6dafe53b-2063-428e-8ba2-6ec8a7615450"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>